--- a/rankings.xlsx
+++ b/rankings.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Div B" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +414,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,120 +443,220 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>shriram157</t>
+          <t>Rank</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total score</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Total time</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>naveen_05_03</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>mrhacker_007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0:20:12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>nikola_tesla_7</t>
+          <t>1320</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>naveen_05_03</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0:20:53</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>manirevanth</t>
+          <t>1321</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>ravi7911</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0:20:55</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>avinashdoddi</t>
+          <t>1345</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>sayi_hrudai</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0:21:44</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mrhacker_007</t>
+          <t>1395</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>shriram157</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0:23:45</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>loki25</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>avinashdoddi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0:24:06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>kiran_516</t>
+          <t>1421</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>sanjay_appari</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0:24:37</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ravi7911</t>
+          <t>1446</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>838</t>
+          <t>revanth_2004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0:25:43</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sayi_hrudai</t>
+          <t>1621</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t>prasadvankara</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0:36:45</t>
         </is>
       </c>
     </row>
